--- a/Manuscript/Tables/ML_IntraAndInterObserverError.xlsx
+++ b/Manuscript/Tables/ML_IntraAndInterObserverError.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\RemappingValidation\Manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\RemappingValidation\Manuscript\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2C151D-50F8-4B3B-959C-2B5888DF27D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3366CFEF-F611-47CD-8D7F-D393F134027D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12250" windowHeight="7010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12250" windowHeight="7010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ML_IntraAndInter_ByLandmark" sheetId="1" r:id="rId1"/>
-    <sheet name="ML_MeanOfInterAndIntra_ByLMK" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Alar curvature left</t>
   </si>
@@ -102,19 +101,13 @@
   </si>
   <si>
     <t>Mean</t>
-  </si>
-  <si>
-    <t>Mean SD per landmark, averaged across dimensions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -612,16 +598,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -976,41 +960,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1051,843 +1035,824 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.20685033643505901</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.67948696362424699</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.91956102069413803</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>AVERAGE(B3:D3)</f>
         <v>0.60196610691781471</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.147146883171029</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0.54717822754308798</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.60738397251208998</v>
       </c>
       <c r="I3" s="4">
         <f>AVERAGE(F3:H3)</f>
         <v>0.43390302774206901</v>
       </c>
-      <c r="J3" s="2">
-        <v>0.122220245268504</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.37516901252222901</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.42265439473849697</v>
-      </c>
-      <c r="M3" s="4">
-        <f>AVERAGE(J3:L3)</f>
-        <v>0.30668121750974331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J3" s="3">
+        <v>0.172845528455285</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.53056910569105697</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.59772357723577396</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.43371273712737202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.20762690977357001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.75026770139737997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.93331624967707205</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E21" si="0">AVERAGE(B4:D4)</f>
         <v>0.63040362028267405</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.132686489544103</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>0.46117248126246702</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.53794709286438003</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I22" si="1">AVERAGE(F4:H4)</f>
+        <f t="shared" ref="I4:I21" si="1">AVERAGE(F4:H4)</f>
         <v>0.37726868789031665</v>
       </c>
-      <c r="J4" s="2">
-        <v>0.12187531513134001</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.33688176729700497</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.52728320301162601</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M22" si="2">AVERAGE(J4:L4)</f>
-        <v>0.32868009514665703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J4" s="3">
+        <v>0.172357723577236</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.47642276422764201</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.74569105691056803</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.464823848238482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>0.86012728415744699</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.53855384524379601</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.42546547328887402</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>0.60804886756337229</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0.67033653460880804</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0.352722613775448</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>0.31839918726979499</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>0.44715277855135033</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.59483202153961001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.29652494124879802</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.36309645772148202</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.41815114016996335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J5" s="3">
+        <v>0.84121951219512203</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.41934959349593498</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.51349593495934898</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.59135501355013498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>0.80741150202877598</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.491723952497579</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.50157077709179998</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.60023541053938489</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0.74116538445782498</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.34646668512210399</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0.39241950551128402</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>0.49335052503040439</v>
       </c>
-      <c r="J6" s="2">
-        <v>0.426908533096854</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.27123006452342502</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.19712757338932299</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.29842205700320062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J6" s="3">
+        <v>0.603739837398374</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.38357723577235803</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.27878048780487802</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.422032520325203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0.54609563503735203</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>0.66759513083894795</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.29124991485887097</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.50164689357839032</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0.43270209117270703</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.29837852524179698</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0.181241537770161</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>0.30410738472822169</v>
       </c>
-      <c r="J7" s="2">
-        <v>0.51687781054050796</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.45841215229118099</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.18896422680977101</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="2"/>
-        <v>0.38808472988048665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J7" s="3">
+        <v>0.73097560975609799</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.64829268292682896</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.267235772357723</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.54883468834688298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.55176621216437804</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>0.71463151049242202</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.34089470725165</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>0.53576414330281674</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0.46543502730344399</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.25199667426797101</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>0.167130305774051</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>0.29485400244848864</v>
       </c>
-      <c r="J8" s="2">
-        <v>0.653585121569907</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.56976709823901395</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.197644968595069</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.47366572946799668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J8" s="3">
+        <v>0.92430894308943101</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.80577235772357803</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.27951219512195202</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.66986449864498698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>0.921869793409127</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.62693609449824494</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>0.68518048167852597</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>0.74466212319529923</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0.55059442848195395</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.38606720836015801</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0.37486629491773699</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>0.437175977253283</v>
       </c>
-      <c r="J9" s="2">
-        <v>0.58816337222110304</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.32860344400506503</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.39172565910610901</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.43616415844409234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J9" s="3">
+        <v>0.83178861788617897</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.464715447154471</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.55398373983739901</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.61682926829268303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1.1879194690919399</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>0.50025215394419997</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>0.62090608924558199</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>0.76969257076057396</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0.5617166994085</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>0.36470209217786198</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>0.41207408508168802</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>0.44616429222268333</v>
       </c>
-      <c r="J10" s="2">
-        <v>0.48284470367364302</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.26887304191947098</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.33061553647185699</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.36077776068832362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J10" s="3">
+        <v>0.68284552845528401</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.380243902439026</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.46756097560975701</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.51021680216802201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>0.68993335611069195</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>0.50577255518820996</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.56310176917084698</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>0.58626922682324967</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0.50322139968264701</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>0.40389744425499102</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0.406930834217127</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>0.43801655938492168</v>
       </c>
-      <c r="J11" s="2">
-        <v>0.36349887621484001</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.27048271589290301</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.24984439601924599</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.29460866270899633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J11" s="3">
+        <v>0.51406504065040604</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.38252032520325202</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.353333333333333</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.41663956639566302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>0.74020961696459497</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>0.58968442752310601</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>0.63300823694365504</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>0.65430076047711871</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>0.43463394028584601</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>0.28819456834838802</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>0.350730509000034</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>0.35785300587808938</v>
       </c>
-      <c r="J12" s="2">
-        <v>0.35240362346939402</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.237369422725143</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.26680346109648601</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.28552550243034097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J12" s="3">
+        <v>0.49837398373983799</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.33569105691057</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.37731707317073299</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.40379403794037999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>0.56266855102906199</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>0.86578736104228504</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>0.29979020310820398</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>0.57608203839318362</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>0.45324327515777202</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>1.16957091056699</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>0.44140715141949999</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>0.68807377904808742</v>
       </c>
-      <c r="J13" s="2">
-        <v>0.41753793103722697</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.69129748323318896</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.253638627528053</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.45415801393282296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J13" s="3">
+        <v>0.59048780487804897</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.97764227642276302</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.35869918699186998</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.64227642276422703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>0.52136245788018298</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>0.60997619254973601</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.37824608796841303</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>0.50319491279944406</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>0.418294540192306</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>0.33551776414545997</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0.19867443290442199</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
         <v>0.31749557908072934</v>
       </c>
-      <c r="J14" s="2">
-        <v>0.535504037947373</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.84680348673803596</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.374881570741258</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="2"/>
-        <v>0.58572969847555567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="3">
+        <v>0.75731707317073205</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.19756097560976</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.53016260162601603</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.828346883468835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0.46733199636481798</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>0.58611522332851795</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>0.22283000185033899</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>0.42542574051455834</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>0.29676593008310698</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>0.37570398051336701</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>0.12744729596488799</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>0.26663906885378735</v>
       </c>
-      <c r="J15" s="2">
-        <v>0.37516901252222801</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.453353176946106</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.126934290476414</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.31848549331491599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J15" s="3">
+        <v>0.53056910569105697</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.64113821138211302</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.17951219512195099</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.45040650406504001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>0.33020125424214702</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>0.93209215392911804</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>0.34710987381633202</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>0.53646776066253243</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>0.313187363094592</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>0.84782351052930605</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>0.45947447346500397</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="1"/>
         <v>0.5401617823629673</v>
       </c>
-      <c r="J16" s="2">
-        <v>0.38913868307737698</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.81506991411893204</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.277208853567604</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="2"/>
-        <v>0.49380581692130437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J16" s="3">
+        <v>0.55032520325203305</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.15268292682927</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.39203252032520203</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.698346883468834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.646420608062098</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>1.2741585951151899</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.54187726538671099</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>0.82081882285466623</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>0.62197635846848998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>1.1558097446351401</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>0.49998397204930001</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="1"/>
         <v>0.75925669171764332</v>
       </c>
-      <c r="J17" s="2">
-        <v>0.71095850105154801</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.75723662778774103</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.32779860701835001</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="2"/>
-        <v>0.59866457861921307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J17" s="3">
+        <v>1.00544715447155</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.07089430894309</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.46357723577235899</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.84663956639566496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>0.418517365962156</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>0.71041186360724895</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.24908380001180599</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>0.4593376765270703</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>0.29941391864400402</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>0.44226704743420903</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>0.205287572720146</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="1"/>
         <v>0.31565617959945302</v>
       </c>
-      <c r="J18" s="2">
-        <v>0.289626338505515</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.492732700939016</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.214661522028501</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33234018715767732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J18" s="3">
+        <v>0.40959349593495997</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.69682926829268299</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.30357723577235701</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.55237900561247799</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>0.36295111349751502</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>0.58995411610138304</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>0.5017614117371253</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>0.51566755682128695</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>0.30753712867610999</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>0.45531755164598697</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="1"/>
         <v>0.42617407904779459</v>
       </c>
-      <c r="J19" s="2">
-        <v>0.47640600777991199</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.25542076657006801</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.46967987010521001</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.40050221481839671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J19" s="3">
+        <v>0.67373983739837395</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.36121951219512199</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.66422764227642195</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.56639566395663898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>0.57671119793246495</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>0.31440102434504902</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.57390591846662897</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>0.48833938024804763</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>0.64216348660369005</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>0.32143483818227703</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>0.49089248212852599</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
         <v>0.48483026897149767</v>
       </c>
-      <c r="J20" s="2">
-        <v>0.49790665299647902</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.31469126180611101</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.472324334490136</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="2"/>
-        <v>0.42830741643090864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J20" s="3">
+        <v>0.70414634146341504</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.44504065040650398</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.66796747967479597</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.60571815718157196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>0.37653471582807002</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>0.65270778124414297</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>0.32190268055268501</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>0.450381725874966</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>0.33421713956464799</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>0.71961012141513803</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>0.35462286928096198</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="1"/>
         <v>0.4694833767535827</v>
       </c>
-      <c r="J21" s="2">
-        <v>0.17660423022805499</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.552980498230358</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.31428884331275198</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="2"/>
-        <v>0.34795785725705497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J21" s="3">
+        <v>0.249756097560975</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.78203252032520298</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.44447154471544598</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.49208672086720801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1896,48 +1861,48 @@
         <v>0.58799669832033741</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:F22" si="3">AVERAGE(C3:C21)</f>
+        <f t="shared" ref="C22:M22" si="2">AVERAGE(C3:C21)</f>
         <v>0.65123713915299641</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49678708774544811</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="3"/>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
         <v>0.57867364173959401</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4491878129866716</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ref="G22" si="4">AVERAGE(G3:G21)</f>
+        <f t="shared" si="2"/>
         <v>0.49347639823433009</v>
       </c>
       <c r="H22" s="4">
-        <f>AVERAGE(H3:H21)</f>
+        <f t="shared" si="2"/>
         <v>0.36748584876300433</v>
       </c>
-      <c r="I22" s="5">
-        <f>AVERAGE(I3:I21)</f>
+      <c r="I22" s="4">
+        <f t="shared" si="2"/>
         <v>0.4367166866613354</v>
       </c>
       <c r="J22" s="4">
-        <f>AVERAGE(J3:J21)</f>
-        <v>0.42589794830902195</v>
+        <f t="shared" si="2"/>
+        <v>0.60231065468549472</v>
       </c>
       <c r="K22" s="4">
-        <f>AVERAGE(K3:K21)</f>
-        <v>0.45225787247546267</v>
+        <f t="shared" si="2"/>
+        <v>0.63958921694480153</v>
       </c>
       <c r="L22" s="4">
-        <f>AVERAGE(L3:L21)</f>
-        <v>0.31406191559093388</v>
-      </c>
-      <c r="M22" s="5">
-        <f>AVERAGE(M3:M21)</f>
-        <v>0.39740591212513943</v>
+        <f t="shared" si="2"/>
+        <v>0.4441506204535729</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.56201683069462272</v>
       </c>
     </row>
   </sheetData>
@@ -1949,330 +1914,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.60196610691781471</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.43390302774206901</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.30668121750974331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.63040362028267405</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.37726868789031665</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.32868009514665703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.60804886756337229</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.44715277855135033</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.41815114016996335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.60023541053938489</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.49335052503040439</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.29842205700320062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.50164689357839032</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.30410738472822169</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.38808472988048665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.53576414330281674</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.29485400244848864</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.47366572946799668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.74466212319529923</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.437175977253283</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.43616415844409234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.76969257076057396</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.44616429222268333</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.36077776068832362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.58626922682324967</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.43801655938492168</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.29460866270899633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.65430076047711871</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.35785300587808938</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.28552550243034097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.57608203839318362</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.68807377904808742</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.45415801393282296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.50319491279944406</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.31749557908072934</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.58572969847555567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.42542574051455834</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.26663906885378735</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.31848549331491599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.53646776066253243</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.5401617823629673</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.49380581692130437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.82081882285466623</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.75925669171764332</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.59866457861921307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.4593376765270703</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.31565617959945302</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.33234018715767732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.5017614117371253</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.42617407904779459</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.40050221481839671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.48833938024804763</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.48483026897149767</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.42830741643090864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.450381725874966</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.4694833767535827</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.34795785725705497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.57867364173959401</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.4367166866613354</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.39740591212513943</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Manuscript/Tables/ML_IntraAndInterObserverError.xlsx
+++ b/Manuscript/Tables/ML_IntraAndInterObserverError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10522"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\RemappingValidation\Manuscript\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julie/Documents/RemappingValidation/Manuscript/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3366CFEF-F611-47CD-8D7F-D393F134027D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11B93966-696E-EE47-AE21-93786889937B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12250" windowHeight="7010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="24400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ML_IntraAndInter_ByLandmark" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,8 +607,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,18 +966,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>0.43371273712737202</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>0.464823848238482</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>0.59135501355013498</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>0.422032520325203</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>0.54883468834688298</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>0.66986449864498698</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>0.61682926829268303</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>0.51021680216802201</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>0.41663956639566302</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>0.40379403794037999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>0.64227642276422703</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>0.828346883468835</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>0.45040650406504001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>0.698346883468834</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>0.84663956639566496</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>0.56639566395663898</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>0.60571815718157196</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>0.49208672086720801</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
